--- a/data/trans_orig/IP05A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP05A02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65355A33-274D-4D43-BA02-41A12CE78F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCAAD380-7EFB-4570-A345-E52092BA89B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3980195-58EC-43A9-9124-773607171896}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89E194A9-2709-4B5A-B351-50FF2219C1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="434">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -107,1249 +107,1240 @@
     <t>69,15%</t>
   </si>
   <si>
-    <t>60,53%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>69,09%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276321E7-A28B-4794-9969-A2C3C1DBB386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5808171-4803-48B9-82D7-9C34844FF787}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2089,7 +2080,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -2098,13 +2089,13 @@
         <v>62353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>182</v>
@@ -2113,13 +2104,13 @@
         <v>122411</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2125,13 @@
         <v>21438</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -2149,13 +2140,13 @@
         <v>21802</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -2164,13 +2155,13 @@
         <v>43240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2176,13 @@
         <v>5350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2200,13 +2191,13 @@
         <v>6185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2215,13 +2206,13 @@
         <v>11534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2268,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2289,13 +2280,13 @@
         <v>371569</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>461</v>
@@ -2304,13 +2295,13 @@
         <v>304512</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>1020</v>
@@ -2319,13 +2310,13 @@
         <v>676081</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2331,13 @@
         <v>82713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -2355,13 +2346,13 @@
         <v>88178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>257</v>
@@ -2370,13 +2361,13 @@
         <v>170891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2382,13 @@
         <v>20669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -2406,13 +2397,13 @@
         <v>22732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -2421,13 +2412,13 @@
         <v>43401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2474,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2495,13 +2486,13 @@
         <v>128202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>206</v>
@@ -2510,13 +2501,13 @@
         <v>141004</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>397</v>
@@ -2525,13 +2516,13 @@
         <v>269205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2537,13 @@
         <v>24501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -2561,13 +2552,13 @@
         <v>28306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -2576,13 +2567,13 @@
         <v>52807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2588,13 @@
         <v>5435</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2612,13 +2603,13 @@
         <v>4309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -2627,13 +2618,13 @@
         <v>9745</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2692,13 @@
         <v>560554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>759</v>
@@ -2716,13 +2707,13 @@
         <v>507869</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>1600</v>
@@ -2731,13 +2722,13 @@
         <v>1068423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2743,13 @@
         <v>128652</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>206</v>
@@ -2767,13 +2758,13 @@
         <v>138287</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>400</v>
@@ -2782,13 +2773,13 @@
         <v>266938</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2794,13 @@
         <v>31454</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -2818,13 +2809,13 @@
         <v>33226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -2833,13 +2824,13 @@
         <v>64680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2886,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +2906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADDE54D-527C-4908-8B64-FBBE0ACB823D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C64CA7-7BDE-4E9F-B098-2CC8058150BD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2932,7 +2923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3237,13 +3228,13 @@
         <v>70741</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>112</v>
@@ -3252,13 +3243,13 @@
         <v>77101</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>210</v>
@@ -3267,13 +3258,13 @@
         <v>147842</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3279,13 @@
         <v>12863</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -3303,13 +3294,13 @@
         <v>11689</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -3318,13 +3309,13 @@
         <v>24552</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3330,13 @@
         <v>2588</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3354,13 +3345,13 @@
         <v>2811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3369,13 +3360,13 @@
         <v>5399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3422,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3443,13 +3434,13 @@
         <v>422369</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H12" s="7">
         <v>556</v>
@@ -3458,13 +3449,13 @@
         <v>383072</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>1160</v>
@@ -3473,13 +3464,13 @@
         <v>805442</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3485,13 @@
         <v>58114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -3509,13 +3500,13 @@
         <v>56126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -3524,13 +3515,13 @@
         <v>114240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3536,13 @@
         <v>13963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -3560,10 +3551,10 @@
         <v>13012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>180</v>
@@ -3637,7 +3628,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3754,7 +3745,7 @@
         <v>202</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>203</v>
@@ -3784,10 +3775,10 @@
         <v>207</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3903,7 @@
         <v>219</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -3921,13 +3912,13 @@
         <v>92612</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M21" s="7">
         <v>271</v>
@@ -3936,13 +3927,13 @@
         <v>189004</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3948,13 @@
         <v>22845</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3972,13 +3963,13 @@
         <v>25350</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -3987,13 +3978,13 @@
         <v>48195</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4040,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4069,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA96717-2359-40F5-AE9D-7BFAAAAFF71D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E4374D-2F0E-4000-82E5-6AF6BD253F03}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4086,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4375,13 +4366,13 @@
         <v>57840</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -4390,13 +4381,13 @@
         <v>52517</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>162</v>
@@ -4405,13 +4396,13 @@
         <v>110358</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4417,13 @@
         <v>10074</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4441,13 +4432,13 @@
         <v>6204</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -4456,13 +4447,13 @@
         <v>16279</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4468,13 @@
         <v>700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4492,13 +4483,13 @@
         <v>657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4507,13 +4498,13 @@
         <v>1357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +4560,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4581,13 +4572,13 @@
         <v>425964</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H12" s="7">
         <v>624</v>
@@ -4596,13 +4587,13 @@
         <v>412538</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M12" s="7">
         <v>1230</v>
@@ -4611,13 +4602,13 @@
         <v>838502</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4623,13 @@
         <v>50604</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4647,13 +4638,13 @@
         <v>43166</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -4662,13 +4653,13 @@
         <v>93770</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4674,13 @@
         <v>12167</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -4698,13 +4689,13 @@
         <v>14848</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4713,13 +4704,13 @@
         <v>27015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,7 +4766,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4787,13 +4778,13 @@
         <v>170683</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>221</v>
@@ -4802,13 +4793,13 @@
         <v>148022</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>468</v>
@@ -4817,13 +4808,13 @@
         <v>318704</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4829,13 @@
         <v>13874</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4853,13 +4844,13 @@
         <v>19568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -4868,13 +4859,13 @@
         <v>33442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4880,13 @@
         <v>2938</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -4904,13 +4895,13 @@
         <v>5112</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -4919,13 +4910,13 @@
         <v>8051</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4984,13 @@
         <v>654487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>924</v>
@@ -5008,13 +4999,13 @@
         <v>613077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>1860</v>
@@ -5023,13 +5014,13 @@
         <v>1267563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5035,13 @@
         <v>74552</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -5059,13 +5050,13 @@
         <v>68939</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M21" s="7">
         <v>211</v>
@@ -5074,13 +5065,13 @@
         <v>143491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5086,13 @@
         <v>15805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -5110,13 +5101,13 @@
         <v>20617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -5125,13 +5116,13 @@
         <v>36422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5178,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597F4E65-2BBA-4AB0-B93A-2AE974072890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA26589-84C6-4739-8196-29C643D0F9CE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5224,7 +5215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5513,13 +5504,13 @@
         <v>48923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -5528,13 +5519,13 @@
         <v>45356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>129</v>
@@ -5543,13 +5534,13 @@
         <v>94279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5555,13 @@
         <v>3071</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>172</v>
+        <v>348</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5579,13 +5570,13 @@
         <v>1548</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -5594,13 +5585,13 @@
         <v>4619</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5606,13 @@
         <v>6763</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5630,13 +5621,13 @@
         <v>4298</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5645,13 +5636,13 @@
         <v>11061</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,7 +5698,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5719,13 +5710,13 @@
         <v>453841</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H12" s="7">
         <v>588</v>
@@ -5734,13 +5725,13 @@
         <v>404282</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M12" s="7">
         <v>1189</v>
@@ -5749,13 +5740,13 @@
         <v>858123</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5761,13 @@
         <v>27929</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -5785,13 +5776,13 @@
         <v>39816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -5800,13 +5791,13 @@
         <v>67745</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5812,13 @@
         <v>10594</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5836,13 +5827,13 @@
         <v>5870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -5851,13 +5842,13 @@
         <v>16464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5904,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5925,13 +5916,13 @@
         <v>153576</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>209</v>
@@ -5940,13 +5931,13 @@
         <v>137246</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>422</v>
@@ -5955,13 +5946,13 @@
         <v>290822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +5967,13 @@
         <v>16132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5991,13 +5982,13 @@
         <v>8697</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -6006,13 +5997,13 @@
         <v>24829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6018,13 @@
         <v>3973</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>232</v>
+        <v>404</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -6042,13 +6033,13 @@
         <v>5427</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -6057,13 +6048,13 @@
         <v>9400</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6122,13 @@
         <v>656340</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>856</v>
@@ -6146,13 +6137,13 @@
         <v>586883</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>1740</v>
@@ -6161,13 +6152,13 @@
         <v>1243224</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6173,13 @@
         <v>47132</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -6197,13 +6188,13 @@
         <v>50061</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>125</v>
@@ -6212,13 +6203,13 @@
         <v>97193</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,13 +6224,13 @@
         <v>21329</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -6248,13 +6239,13 @@
         <v>15596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -6263,13 +6254,13 @@
         <v>36925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6316,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
